--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>not assigned ()</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>not assigned (shrub/tree)</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>grass</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>grass</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>grass</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>not assigned ()</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>legume</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>legume</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>grass</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">

--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PFT</t>
+          <t>Species Original</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>PFT TRY</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Woodiness</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Family GBIF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PFT Family_Woodiness</t>
         </is>
       </c>
     </row>
@@ -458,12 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Acer campestre</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>not assigned (tree)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -475,12 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Acer negundo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>not assigned (tree)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -492,12 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Acer platanoides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>not assigned (tree)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -509,29 +569,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Acer pseudoplatanus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>not assigned (tree)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Acer sp.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>not assigned (tree)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -543,12 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -560,12 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Agrimonia eupatoria</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -577,29 +697,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Agrostis capillaris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Allium</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Allium sp.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Amaryllidaceae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -611,12 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Allium vineale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Amaryllidaceae</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -628,29 +793,59 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Alopecurus pratensis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Lysimachia arvensis</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Anagallis arvensis</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Primulaceae</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -662,12 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Anthemis arvensis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -679,12 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Anthoxanthum odoratum</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -696,29 +921,59 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Anthriscus sylvestris</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Apiaceae sp.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>not found</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -730,12 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Arabidopsis thaliana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -747,12 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Arenaria serpyllifolia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -764,12 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Arrhenatherum elatius</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -781,29 +1081,59 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Artemisia vulgaris</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Asteraceae sp.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>conflicting</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -815,12 +1145,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Avena sativa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -832,12 +1177,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Bellis perennis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -849,29 +1209,59 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Betonica officinalis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Betula sp.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Betulaceae</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -883,12 +1273,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Borago officinalis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Boraginaceae</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -900,12 +1305,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Brachypodium pinnatum</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -917,12 +1337,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Brassica napus</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -934,29 +1369,59 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Brassica oleracea</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Brassicaceae sp.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -968,12 +1433,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Bromus erectus</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -985,12 +1465,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Bromus hordeaceus</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1497,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Bromus sterilis</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1529,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Calamagrostis epigejos</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>not assigned</t>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1561,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Campanula patula</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1593,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Campanula rapunculoides</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1625,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Campanula rotundifolia</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1657,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Capsella bursa-pastoris</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1104,10 +1689,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Carduus acanthoides</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -1121,12 +1721,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Carduus crispus</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1753,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Carum carvi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1785,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Centaurea jacea</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1817,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Centaurea scabiosa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1849,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Cerastium glomeratum</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1881,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Cerastium holosteoides</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1223,29 +1913,59 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Chenopodium album</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Amaranthaceae</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Chrysanthemum vulgare</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>conflicting</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1977,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Cichorium intybus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1274,12 +2009,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Cirsium arvense</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1291,12 +2041,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Cirsium vulgare</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1308,12 +2073,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Clematis vitalba</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1325,12 +2105,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Colchicum autumnale</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Colchicaceae</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1342,29 +2137,59 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Convolvulus arvensis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Convolvulaceae</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Erigeron canadensis</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Conyza canadensis</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1376,12 +2201,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Cornus sanguinea</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cornaceae</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1393,12 +2233,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Crataegus monogyna</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>not assigned (shrub/tree)</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1410,12 +2265,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Crepis biennis</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1427,12 +2297,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Crepis capillaris</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1444,12 +2329,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Cynosurus cristatus</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1461,12 +2361,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Dactylis glomerata</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1478,12 +2393,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Daucus carota</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1495,12 +2425,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Descurainia sophia</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1512,12 +2457,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Dianthus carthusianorum</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1529,12 +2489,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Dianthus seguieri</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1546,12 +2521,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>Elymus repens</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1563,12 +2553,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Epilobium tetragonum</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Onagraceae</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1580,12 +2585,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>Equisetum arvense</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>not assigned (fern)</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Equisetaceae</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1597,10 +2617,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Erigeron acris</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -1614,12 +2649,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Erigeron annuus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1631,29 +2681,59 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Erodium cicutarium</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>Draba</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>Erophila verna</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1665,12 +2745,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Eryngium campestre</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1682,12 +2777,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Falcaria vulgaris</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1699,29 +2809,59 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Fallopia convolvulus</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Polygonaceae</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>Festuca arundinacea</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1733,29 +2873,59 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>Festuca ovina</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>Festuca pratensis</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1767,12 +2937,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>Festuca rubra</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1784,29 +2969,59 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>Festuca rupicola</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>Festuca</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>Festuca sp.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1818,12 +3033,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>Festulolium</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -1835,12 +3065,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Filipendula ulmaria</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1852,12 +3097,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Filipendula vulgaris</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1869,12 +3129,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>not assigned (tree)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Oleaceae</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1886,12 +3161,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Fumaria officinalis</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Papaveraceae</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1903,12 +3193,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Galium album</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1920,12 +3225,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Galium aparine</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1937,29 +3257,59 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Galium mollugo</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>Galium pomeranicum</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>Galium x pomeranicum</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>not found</t>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1971,12 +3321,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Galium verum</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1988,12 +3353,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Geranium molle</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2005,12 +3385,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Geranium pratense</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2022,12 +3417,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Geranium pusillum</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2039,12 +3449,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Geranium pyrenaicum</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2056,29 +3481,59 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Geranium rotundifolium</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>Geranium</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>Geranium sp.</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>not found</t>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2090,12 +3545,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Geum urbanum</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2107,12 +3577,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Glechoma hederacea</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2124,29 +3609,59 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>Helictotrichon pratense</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>Avenula pubescens</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>Helictotrichon pubescens</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2158,29 +3673,59 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Heracleum sphondylium</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>Pilosella officinarum</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>Hieracium pilosella</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2192,12 +3737,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>Holcus lanatus</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2209,12 +3769,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Hypericum perforatum</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Hypericaceae</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2226,12 +3801,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Hypochaeris radicata</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2243,12 +3833,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Knautia arvensis</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Caprifoliaceae</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2260,12 +3865,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>Koeleria macrantha</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2277,12 +3897,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Lactuca serriola</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2294,12 +3929,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Lamium amplexicaule</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2311,12 +3961,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Lamium purpureum</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2328,12 +3993,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Lapsana communis</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2345,12 +4025,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>Lathyrus pratensis</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -2362,12 +4057,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>Lathyrus tuberosus</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -2379,12 +4089,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Leontodon autumnalis</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2396,12 +4121,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Leontodon hispidus</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2413,29 +4153,59 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Leucanthemum vulgare</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>Seseli libanotis</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>Libanotis pyrenaica</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2447,25 +4217,51 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Linaria vulgaris</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2477,12 +4273,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>Lolium multiflorum</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2494,12 +4305,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>Lolium perenne</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2511,12 +4337,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>Lotus corniculatus</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -2528,29 +4369,59 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>Lotus pedunculatus</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>Silene flos-cuculi</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>Lychnis flos-cuculi</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>not found</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2562,12 +4433,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Lysimachia nummularia</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Primulaceae</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2579,29 +4465,59 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Malva sylvestris</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Malvaceae</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>Matricaria inodora</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>conflicting</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2613,12 +4529,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>Medicago falcata</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -2630,46 +4561,91 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>Medicago lupulina</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>Medicago</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>Medicago sp.</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>not found</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>Medicago varia</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>Medicago x varia</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>not found</t>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2681,42 +4657,83 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Melampyrum pratense</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Orobanchaceae</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>Noccaea perfoliata</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>Microthlaspi perfoliatum</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr">
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2728,12 +4745,27 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Myosotis arvensis</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Boraginaceae</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2745,12 +4777,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Papaver rhoeas</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Papaveraceae</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2762,10 +4809,25 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Pastinaca sativa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -2779,10 +4841,25 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Petrorhagia prolifera</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -2796,12 +4873,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>Phleum pratense</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2813,12 +4905,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Picris hieracioides</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2830,12 +4937,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Pimpinella saxifraga</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2847,12 +4969,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Plantago lanceolata</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2864,12 +5001,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Plantago major</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2881,12 +5033,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Plantago media</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2898,12 +5065,27 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>Poa angustifolia</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2915,12 +5097,27 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>Poa annua</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2932,12 +5129,27 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>Poa bulbosa</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2949,12 +5161,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>Poa pratensis</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2966,29 +5193,59 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>Poa trivialis</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>Poaceae sp.</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -3000,29 +5257,59 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Polygonum aviculare</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Polygonaceae</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>Populus canadensis</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>Populus x canadensis</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>woody</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Salicaceae</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3034,12 +5321,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Potentilla argentea</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3051,12 +5353,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Prunella vulgaris</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3068,12 +5385,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>Prunus avium</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>not assigned (tree)</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3085,29 +5417,59 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>Prunus mahaleb</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>not assigned (shrub/tree)</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>Prunus sp.</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>woody</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3119,12 +5481,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Ranunculus acris</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3136,12 +5513,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Ranunculus auricomus</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3153,12 +5545,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Ranunculus bulbosus</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3170,25 +5577,51 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Ranunculus repens</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr">
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3200,12 +5633,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Rhinanthus minor</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Orobanchaceae</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3217,12 +5665,27 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>Rubus caesius</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>not assigned (shrub)</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3234,29 +5697,59 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>Rubus idaeus</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>not assigned (shrub)</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Rubus sp.</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3268,12 +5761,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Rumex crispus</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Polygonaceae</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3285,12 +5793,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Salvia pratensis</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3302,29 +5825,59 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>Sambucus nigra</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>not assigned (shrub/tree)</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>woody</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Viburnaceae</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>Poterium sanguisorba</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>Sanguisorba minor</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3336,12 +5889,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Saxifraga granulata</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Saxifragaceae</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3353,42 +5921,83 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Scabiosa ochroleuca</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Caprifoliaceae</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>Coronilla varia</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>Securigera varia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>not found</t>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
-      <c r="B175" t="inlineStr">
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3400,29 +6009,59 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Senecio jacobaea</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>Senecio</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
           <t>Senecio sp.</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>not assigned (herb/shrub)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3434,12 +6073,27 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Senecio vernalis</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3451,12 +6105,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Senecio vulgaris</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3468,12 +6137,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>Setaria viridis</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -3485,12 +6169,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Silaum silaus</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3502,12 +6201,27 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Silene latifolia</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3519,12 +6233,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Silene noctiflora</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3536,12 +6265,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Silene nutans</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3553,12 +6297,27 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Silene vulgaris</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3570,12 +6329,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Sinapis arvensis</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3587,12 +6361,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Solanum tuberosum</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Solanaceae</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3604,12 +6393,27 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Solidago canadensis</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3621,12 +6425,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Sonchus arvensis</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3638,12 +6457,27 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Sonchus asper</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3655,12 +6489,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Sonchus oleraceus</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3672,12 +6521,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Stachys recta</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3689,12 +6553,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Stellaria graminea</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3706,12 +6585,27 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Stellaria media</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3723,12 +6617,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Tanacetum vulgare</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3740,12 +6649,27 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Taraxacum officinale</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3757,12 +6681,27 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Thlaspi arvense</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3774,12 +6713,27 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Tragopogon dubius</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3791,12 +6745,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
+          <t>Tragopogon orientalis</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
           <t>not assigned ()</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3808,12 +6777,27 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Tragopogon pratensis</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -3825,10 +6809,25 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>Trifolium arvense</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -3842,12 +6841,27 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>Trifolium campestre</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -3859,12 +6873,27 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
+          <t>Trifolium dubium</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -3876,12 +6905,27 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>Trifolium hybridum</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -3893,12 +6937,27 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>Trifolium pratense</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -3910,29 +6969,59 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
+          <t>Trifolium repens</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>Tripleurospermum inodorum</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>Tripleurospermum perforatum</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3944,29 +7033,59 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
+          <t>Trisetum flavescens</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
           <t>grass</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>Triticum</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>Triticum sp.</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -3978,12 +7097,27 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Tussilago farfara</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3995,12 +7129,27 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Urtica urens</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Urticaceae</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4012,12 +7161,27 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Verbascum lychnitis</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Scrophulariaceae</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -4029,12 +7193,27 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Verbascum thapsus</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Scrophulariaceae</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4046,12 +7225,27 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Veronica agrestis</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4063,12 +7257,27 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Veronica arvensis</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4080,12 +7289,27 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Veronica chamaedrys</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4097,12 +7321,27 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Veronica hederifolia</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4114,25 +7353,51 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Veronica persica</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
-      <c r="B219" t="inlineStr">
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>not found</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -4144,10 +7409,25 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Veronica serpyllifolia</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -4156,17 +7436,32 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>Vicia</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>Vicia angustifolia</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -4178,12 +7473,27 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
+          <t>Vicia cracca</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -4195,12 +7505,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
+          <t>Vicia hirsuta</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -4212,12 +7537,27 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>Vicia sativa</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -4229,10 +7569,25 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>Vicia sepium</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -4246,10 +7601,25 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
+          <t>Vicia tetrasperma</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -4263,12 +7633,27 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
+          <t>Vicia villosa</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
           <t>legume</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>herbaceous</t>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -4280,29 +7665,59 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>Viola arvensis</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Violaceae</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
+          <t>Festuca</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
           <t>Vulpia myuros</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>herbaceous</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>grass</t>
         </is>
       </c>
     </row>

--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Woodiness</t>
+          <t>Family GBIF</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Family GBIF</t>
+          <t>Woodiness Zanne</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PFT Family_Woodiness</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PFT Combined</t>
         </is>
       </c>
     </row>
@@ -483,15 +488,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -515,15 +525,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -547,15 +562,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -579,15 +599,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -611,15 +636,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Sapindaceae</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sapindaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -643,15 +673,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -675,15 +710,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -707,15 +747,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -739,17 +784,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Amaryllidaceae</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amaryllidaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -771,15 +821,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Amaryllidaceae</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Amaryllidaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -803,15 +858,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -835,15 +895,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Primulaceae</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Primulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -867,15 +932,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -899,15 +969,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -931,15 +1006,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -963,17 +1043,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -995,15 +1080,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1027,15 +1117,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1059,15 +1154,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -1091,15 +1191,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1123,17 +1228,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>conflicting</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1155,15 +1265,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -1187,15 +1302,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1219,17 +1339,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Lamiaceae</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1251,15 +1376,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Betulaceae</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Betulaceae</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -1283,15 +1413,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Boraginaceae</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Boraginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1315,15 +1450,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -1347,15 +1487,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1379,15 +1524,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1411,17 +1561,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1443,15 +1598,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -1475,15 +1635,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -1507,15 +1672,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -1539,15 +1709,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -1571,17 +1746,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Campanulaceae</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1603,15 +1783,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Campanulaceae</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Campanulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1635,17 +1820,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Campanulaceae</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1667,15 +1857,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1699,17 +1894,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1731,15 +1931,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1763,15 +1968,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1795,15 +2005,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1827,15 +2042,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1859,15 +2079,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1891,17 +2116,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1923,15 +2153,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Amaranthaceae</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Amaranthaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -1955,17 +2190,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>conflicting</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -1987,15 +2227,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2019,15 +2264,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2051,15 +2301,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2083,17 +2338,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ranunculaceae</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2115,15 +2375,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Colchicaceae</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Colchicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2147,15 +2412,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Convolvulaceae</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Convolvulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2179,15 +2449,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2211,15 +2486,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Cornaceae</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cornaceae</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -2243,15 +2523,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -2275,15 +2560,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2307,15 +2597,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2339,15 +2634,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -2371,15 +2671,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -2403,15 +2708,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2435,15 +2745,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2467,15 +2782,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2499,15 +2819,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2531,15 +2856,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -2563,15 +2893,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Onagraceae</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Onagraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2595,15 +2930,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Equisetaceae</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Equisetaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2627,17 +2967,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2659,15 +3004,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2691,15 +3041,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2723,15 +3078,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2755,15 +3115,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2787,17 +3152,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -2819,15 +3189,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Polygonaceae</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Polygonaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -2851,15 +3226,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -2883,15 +3263,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -2915,15 +3300,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -2947,15 +3337,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -2979,15 +3374,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -3011,15 +3411,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -3043,15 +3448,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Poaceae</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -3075,17 +3485,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3107,15 +3522,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3139,15 +3559,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Oleaceae</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Oleaceae</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -3171,15 +3596,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Papaveraceae</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Papaveraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3203,15 +3633,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3235,17 +3670,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3267,17 +3707,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3299,17 +3744,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3331,15 +3781,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3363,15 +3818,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3395,15 +3855,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3427,15 +3892,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3459,17 +3929,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Geraniaceae</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3491,15 +3966,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3523,17 +4003,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Geraniaceae</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3555,15 +4040,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3587,15 +4077,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3619,15 +4114,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -3651,15 +4151,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -3683,15 +4188,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3715,15 +4225,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3747,15 +4262,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -3779,15 +4299,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Hypericaceae</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hypericaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3811,17 +4336,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -3843,15 +4373,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caprifoliaceae</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Caprifoliaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3875,15 +4410,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -3907,15 +4447,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3939,15 +4484,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -3971,15 +4521,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4003,15 +4558,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4035,15 +4595,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -4067,15 +4632,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -4099,17 +4669,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4131,15 +4706,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4163,15 +4743,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4195,15 +4780,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4227,15 +4817,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4261,7 +4856,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
     </row>
@@ -4283,15 +4883,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -4315,15 +4920,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -4347,15 +4957,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -4379,17 +4994,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
-        </is>
-      </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -4411,17 +5031,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4443,15 +5068,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Primulaceae</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Primulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4475,15 +5105,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Malvaceae</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Malvaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4507,17 +5142,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>conflicting</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4539,15 +5179,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -4571,15 +5216,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -4603,17 +5253,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
-        </is>
-      </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -4635,17 +5290,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
-        </is>
-      </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -4667,15 +5327,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Orobanchaceae</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Orobanchaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4699,15 +5364,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4733,7 +5403,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
     </row>
@@ -4755,15 +5430,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Boraginaceae</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Boraginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4787,15 +5467,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Papaveraceae</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Papaveraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4819,17 +5504,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4851,17 +5541,22 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4883,15 +5578,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -4915,15 +5615,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4947,17 +5652,22 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -4979,15 +5689,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5011,15 +5726,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5043,17 +5763,22 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Plantaginaceae</t>
-        </is>
-      </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -5075,15 +5800,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -5107,15 +5837,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -5139,15 +5874,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -5171,15 +5911,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -5203,15 +5948,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -5235,15 +5985,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -5267,15 +6022,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Polygonaceae</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Polygonaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5299,15 +6059,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>Salicaceae</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Salicaceae</t>
-        </is>
-      </c>
       <c r="F153" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5331,15 +6096,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5363,15 +6133,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5395,15 +6170,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
-        </is>
-      </c>
       <c r="F156" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5427,15 +6207,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
-        </is>
-      </c>
       <c r="F157" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5459,15 +6244,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
-        </is>
-      </c>
       <c r="F158" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5491,17 +6281,22 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Ranunculaceae</t>
-        </is>
-      </c>
       <c r="F159" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -5523,17 +6318,22 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Ranunculaceae</t>
-        </is>
-      </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -5555,15 +6355,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Ranunculaceae</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Ranunculaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5587,15 +6392,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Ranunculaceae</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ranunculaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5621,7 +6431,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
     </row>
@@ -5643,15 +6458,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Orobanchaceae</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Orobanchaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5675,15 +6495,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
-        </is>
-      </c>
       <c r="F165" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5707,15 +6532,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
-        </is>
-      </c>
       <c r="F166" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5739,15 +6569,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5771,15 +6606,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Polygonaceae</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Polygonaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5803,15 +6643,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5835,15 +6680,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>Viburnaceae</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Viburnaceae</t>
-        </is>
-      </c>
       <c r="F170" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -5867,15 +6717,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5899,17 +6754,22 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
+          <t>Saxifragaceae</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Saxifragaceae</t>
-        </is>
-      </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -5931,17 +6791,22 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
+          <t>Caprifoliaceae</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Caprifoliaceae</t>
-        </is>
-      </c>
       <c r="F173" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -5963,17 +6828,22 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
-        </is>
-      </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -5997,7 +6867,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
     </row>
@@ -6019,17 +6894,22 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6051,15 +6931,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -6083,17 +6968,22 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6115,15 +7005,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6147,15 +7042,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -6179,17 +7079,22 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
       <c r="F181" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6211,15 +7116,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6243,17 +7153,22 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
-        </is>
-      </c>
       <c r="F183" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6275,15 +7190,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6307,15 +7227,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6339,15 +7264,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6371,15 +7301,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Solanaceae</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Solanaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6403,15 +7338,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6435,15 +7375,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6467,15 +7412,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6499,15 +7449,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6531,17 +7486,22 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Lamiaceae</t>
-        </is>
-      </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6563,15 +7523,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6595,17 +7560,22 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
-        </is>
-      </c>
       <c r="F194" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6627,15 +7597,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6659,17 +7634,22 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6691,15 +7671,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6723,15 +7708,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -6755,15 +7745,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F199" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>not assigned</t>
         </is>
@@ -6787,17 +7782,22 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
       <c r="F200" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -6819,17 +7819,22 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -6851,15 +7856,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -6883,15 +7893,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -6915,15 +7930,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -6947,15 +7967,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -6979,15 +8004,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -7011,15 +8041,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7043,15 +8078,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -7075,15 +8115,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -7107,15 +8152,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7139,15 +8189,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Urticaceae</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Urticaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7171,17 +8226,22 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
+          <t>Scrophulariaceae</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Scrophulariaceae</t>
-        </is>
-      </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -7203,15 +8263,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Scrophulariaceae</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Scrophulariaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7235,15 +8300,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7267,15 +8337,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7299,15 +8374,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7331,15 +8411,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7363,15 +8448,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7397,7 +8487,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
     </row>
@@ -7419,17 +8514,22 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>forb</t>
         </is>
       </c>
     </row>
@@ -7451,17 +8551,22 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -7483,15 +8588,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -7515,15 +8625,20 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -7547,15 +8662,20 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -7579,17 +8699,22 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -7611,17 +8736,22 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -7643,15 +8773,20 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
         <is>
           <t>legume</t>
         </is>
@@ -7675,15 +8810,20 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Violaceae</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Violaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7707,15 +8847,20 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
         <is>
           <t>grass</t>
         </is>

--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__combined_infos.xlsx
@@ -806,7 +806,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Aceraceae</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sapindaceae</t>
+          <t>conflicting (Aceraceae vs. Sapindaceae)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Alliaceae</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amaryllidaceae</t>
+          <t>conflicting (Alliaceae vs. Amaryllidaceae)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -15390,7 +15390,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
